--- a/ketsugo_test.xlsx
+++ b/ketsugo_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>表1</t>
   </si>
@@ -65,7 +65,7 @@
     <t>確認する</t>
   </si>
   <si>
-    <t>①アカウント登録画面で全てのデータを入力する +    <t>①アカウント登録画面で全ての項目を埋める  ②「確認する」ボタンを押す  ③切り替わった画面を目視する</t>
   </si>
@@ -96,7 +96,7 @@
 登録完了画面</t>
   </si>
   <si>
-    <t>データの登録</t>
+    <t>画面遷移とエラー表示</t>
   </si>
   <si>
     <t>登録する</t>
@@ -115,6 +115,9 @@
   <si>
     <t xml:space="preserve">登録
 </t>
+  </si>
+  <si>
+    <t>データの登録</t>
   </si>
   <si>
     <t>ID</t>
@@ -448,7 +451,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -460,7 +463,7 @@
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1584,7 +1587,7 @@
     <col min="1" max="1" width="8.29688" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.2109" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3594" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.2031" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.6797" style="1" customWidth="1"/>
     <col min="7" max="7" width="81.7266" style="1" customWidth="1"/>
@@ -1650,7 +1653,9 @@
       </c>
     </row>
     <row r="3" ht="48.7" customHeight="1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
       <c r="B3" t="s" s="8">
         <v>13</v>
       </c>
@@ -1676,7 +1681,9 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" ht="48.45" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
       <c r="B4" t="s" s="12">
         <v>19</v>
       </c>
@@ -1700,7 +1707,9 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" ht="48.45" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
       <c r="B5" t="s" s="16">
         <v>24</v>
       </c>
@@ -1724,22 +1733,26 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" ht="18.45" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
       <c r="B6" t="s" s="12">
         <v>29</v>
       </c>
       <c r="C6" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" t="s" s="14">
+        <v>31</v>
+      </c>
       <c r="E6" t="s" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1748,16 +1761,18 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" ht="18.45" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
       <c r="B7" s="20"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" t="s" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" t="s" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -1766,16 +1781,18 @@
       <c r="L7" s="19"/>
     </row>
     <row r="8" ht="18.45" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
       <c r="B8" s="21"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" t="s" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -1784,16 +1801,18 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" ht="18.45" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
       <c r="B9" s="20"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" t="s" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" t="s" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1802,16 +1821,18 @@
       <c r="L9" s="19"/>
     </row>
     <row r="10" ht="18.45" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
       <c r="B10" s="21"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" t="s" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" t="s" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1820,16 +1841,18 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" ht="18.45" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
       <c r="B11" s="20"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" t="s" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -1838,16 +1861,18 @@
       <c r="L11" s="19"/>
     </row>
     <row r="12" ht="18.45" customHeight="1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
       <c r="B12" s="21"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" t="s" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" t="s" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1856,16 +1881,18 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" ht="18.45" customHeight="1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
       <c r="B13" s="20"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" t="s" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" t="s" s="18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -1874,16 +1901,18 @@
       <c r="L13" s="19"/>
     </row>
     <row r="14" ht="18.45" customHeight="1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
       <c r="B14" s="21"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" t="s" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -1892,16 +1921,18 @@
       <c r="L14" s="15"/>
     </row>
     <row r="15" ht="18.45" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
       <c r="B15" s="20"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" t="s" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" t="s" s="18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1910,16 +1941,18 @@
       <c r="L15" s="19"/>
     </row>
     <row r="16" ht="18.45" customHeight="1">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
       <c r="B16" s="21"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" t="s" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -1928,16 +1961,18 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" ht="18.45" customHeight="1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
       <c r="B17" s="20"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" t="s" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1946,16 +1981,18 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" ht="33.45" customHeight="1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
       <c r="B18" s="21"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" t="s" s="14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" t="s" s="14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -1964,16 +2001,18 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" ht="18.45" customHeight="1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" t="s" s="18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" t="s" s="18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1982,16 +2021,18 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" ht="18.45" customHeight="1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
       <c r="B20" s="21"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" t="s" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" t="s" s="14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -2000,16 +2041,18 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" ht="18.45" customHeight="1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" t="s" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" t="s" s="18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -2018,24 +2061,26 @@
       <c r="L21" s="19"/>
     </row>
     <row r="22" ht="33.45" customHeight="1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
       <c r="B22" t="s" s="12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s" s="14">
         <v>14</v>
       </c>
       <c r="D22" t="s" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s" s="14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s" s="14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -2048,9 +2093,9 @@
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F6:F21"/>
-    <mergeCell ref="D5:D21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="C6:C21"/>
+    <mergeCell ref="D6:D21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/ketsugo_test.xlsx
+++ b/ketsugo_test.xlsx
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>①アカウント登録確認画面で「登録する」ボタンを押す -②データベースを確認する</t>
+②データベース「diworks_account」を確認する</t>
   </si>
   <si>
     <t>ID欄に登録した順に１から自動で数字が割り振られている</t>

--- a/ketsugo_test.xlsx
+++ b/ketsugo_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>表1</t>
   </si>
@@ -74,6 +74,12 @@
 （パスワード欄のみ入力した桁数分「●」で表記される）</t>
   </si>
   <si>
+    <t>山角</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>アカウント登録確認画面→  アカウント登録画面</t>
   </si>
@@ -234,6 +240,64 @@
   </si>
   <si>
     <t>「TOPページへ戻る」を押すと、画面遷移しホームページのTOPまで戻る</t>
+  </si>
+  <si>
+    <t>アカウント登録→アカウント一覧</t>
+  </si>
+  <si>
+    <t>一覧表示</t>
+  </si>
+  <si>
+    <t>最新データの反映</t>
+  </si>
+  <si>
+    <t>①アカウント登録画面で全ての項目を埋める +②「確認する」ボタンを押す +③アカウント確認画面の「登録する」を押す +④ナビゲーションバーのアカウント一覧を押す +⑤アカウント一覧の一番上を目視する</t>
+  </si>
+  <si>
+    <t>ID番号が一番新しいものになっている</t>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+  </si>
+  <si>
+    <t>操作手順の①で入力した内容が一番上に表示されている</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>有効になっている</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>①を登録した日時が表示されている</t>
+  </si>
+  <si>
+    <t>更新日時</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1675,8 +1739,12 @@
         <v>18</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="9">
+        <v>20</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
@@ -1685,24 +1753,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" t="s" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
@@ -1711,24 +1783,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s" s="18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
@@ -1737,26 +1813,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
@@ -1768,15 +1848,19 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" t="s" s="18">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" t="s" s="18">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="I7" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
@@ -1788,15 +1872,19 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" t="s" s="14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="I8" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
@@ -1808,15 +1896,19 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" t="s" s="18">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" t="s" s="18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
     </row>
@@ -1828,15 +1920,19 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" t="s" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="I10" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
@@ -1848,15 +1944,19 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" t="s" s="18">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" t="s" s="18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
@@ -1868,15 +1968,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" t="s" s="14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" t="s" s="14">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
@@ -1888,15 +1992,19 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" t="s" s="18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" t="s" s="18">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
@@ -1908,15 +2016,19 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" t="s" s="14">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
@@ -1928,15 +2040,19 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" t="s" s="18">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" t="s" s="18">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
@@ -1948,15 +2064,19 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s" s="14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" t="s" s="14">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
@@ -1968,15 +2088,19 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" t="s" s="18">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" t="s" s="18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
@@ -1988,15 +2112,19 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" t="s" s="14">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="I18" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
@@ -2008,15 +2136,19 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" t="s" s="18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" t="s" s="18">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="I19" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
@@ -2028,15 +2160,19 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" t="s" s="14">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="I20" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
@@ -2048,15 +2184,19 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" t="s" s="18">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" t="s" s="18">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="I21" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s" s="18">
+        <v>20</v>
+      </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
     </row>
@@ -2065,37 +2205,305 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="12">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s" s="14">
         <v>14</v>
       </c>
       <c r="D22" t="s" s="14">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s" s="14">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s" s="14">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="I22" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s" s="14">
+        <v>20</v>
+      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
+    <row r="23" ht="18.45" customHeight="1">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="16">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s" s="18">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s" s="18">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="18">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s" s="18">
+        <v>76</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" ht="18.45" customHeight="1">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" ht="18.45" customHeight="1">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" ht="18.45" customHeight="1">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" ht="18.45" customHeight="1">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="19"/>
+      <c r="I27" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" ht="18.45" customHeight="1">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="I28" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" ht="18.45" customHeight="1">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" t="s" s="18">
+        <v>83</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="19"/>
+      <c r="I29" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" ht="18.45" customHeight="1">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" ht="18.45" customHeight="1">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" t="s" s="18">
+        <v>86</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" ht="18.45" customHeight="1">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" ht="18.45" customHeight="1">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" t="s" s="18">
+        <v>89</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="19"/>
+      <c r="I33" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F6:F21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="D6:D21"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="G24:G30"/>
+    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/ketsugo_test.xlsx
+++ b/ketsugo_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>表1</t>
   </si>
@@ -242,62 +242,279 @@
     <t>「TOPページへ戻る」を押すと、画面遷移しホームページのTOPまで戻る</t>
   </si>
   <si>
-    <t>アカウント登録→アカウント一覧</t>
-  </si>
-  <si>
-    <t>一覧表示</t>
-  </si>
-  <si>
-    <t>最新データの反映</t>
-  </si>
-  <si>
-    <t>①アカウント登録画面で全ての項目を埋める +    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>情報取得</t>
+  </si>
+  <si>
+    <t>データベース情報取得、一覧表示</t>
+  </si>
+  <si>
+    <t>①トップ画面から「アカウント一覧」を押す +②対象項目を目視</t>
+  </si>
+  <si>
+    <t>データベース内のIDが全て降順で並んでいる</t>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「名前（姓）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>名前（名）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「名前（名）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「カナ（姓）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「カナ（名）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>対象ID番号と「メールアドレス」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>対象ID番号の「性別」が０なら男で、１なら女になっている</t>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+  </si>
+  <si>
+    <t>対象ID番号の「アカウント権限」が０なら一般で、１なら管理者になっている</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>対象ID番号の「削除フラグ」が０なら有効で、１なら無効、NULLはNULLになっている</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>対象ID番号と「登録日時」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>対象ID番号と「更新日時」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>全ての行に「更新」、「削除」ボタンが表示されいている</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新ボタンを押す</t>
+  </si>
+  <si>
+    <t>更新画面に切り替わる</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>削除ボタンを押す</t>
+  </si>
+  <si>
+    <t>削除画面に切り替わる</t>
+  </si>
+  <si>
+    <t>アカウント一覧→アカウント更新画面</t>
+  </si>
+  <si>
+    <t>データベース情報取得</t>
+  </si>
+  <si>
+    <t>①トップ画面から「アカウント一覧」を押す +②アカウント一覧画面の更新ボタンを押す +②対象項目を目視</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>「●」で表示されている +登録した文字数と●の数が一致している（復号化した状態になっている）</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>対象ID番号と「郵便番号」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「住所（都道府県）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「住所（市区町村）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>対象ID番号と「住所（番地）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>アカウント更新画面→アカウント更新確認画面</t>
+  </si>
+  <si>
+    <t>①アカウント更新画面で任意の項目を変更する  ②「確認する」ボタンを押す -③アカウント確認画面の「登録する」を押す -④ナビゲーションバーのアカウント一覧を押す -⑤アカウント一覧の一番上を目視する</t>
-  </si>
-  <si>
-    <t>ID番号が一番新しいものになっている</t>
-  </si>
-  <si>
-    <t>名前（姓）</t>
-  </si>
-  <si>
-    <t>操作手順の①で入力した内容が一番上に表示されている</t>
-  </si>
-  <si>
-    <t>名前（名）</t>
-  </si>
-  <si>
-    <t>カナ（姓）</t>
-  </si>
-  <si>
-    <t>カナ（名）</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>アカウント権限</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
-    <t>有効になっている</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>①を登録した日時が表示されている</t>
-  </si>
-  <si>
-    <t>更新日時</t>
+③切り替わった画面を目視する</t>
+  </si>
+  <si>
+    <t>「確認する」ボタンを押し画面遷移後入力したデータがアカウント更新画面で入力した通りに表示される。 +（パスワード欄のみ入力した桁数分「●」で表記される）</t>
+  </si>
+  <si>
+    <t>アカウント更新確認画面→アカウント更新画面</t>
+  </si>
+  <si>
+    <t>①アカウント更新確認画面で「前に戻る」ボタンを押す +②切り替わった画面を目視</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンを押すとアカウント更新画面に遷移し、かつアカウント更新確認画面に表示されていたデータが入力状態維持されている +（パスワード欄のみ入力した桁数分「●」で表記される）</t>
+  </si>
+  <si>
+    <t>アカウント更新確認画面→アカウント更新完了画面</t>
+  </si>
+  <si>
+    <t>更新する</t>
+  </si>
+  <si>
+    <t>①アカウント更新確認画面で「登録する」ボタンを押す +②切り替わった画面を目視</t>
+  </si>
+  <si>
+    <t>「登録する」ボタンを押すと更新完了画面に遷移し「更新完了しました」と表示される。 +または、データ登録にエラーが発生した場合は、画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを赤字で表示する。</t>
+  </si>
+  <si>
+    <t>アカウント更新完了画面→データベース</t>
+  </si>
+  <si>
+    <t>情報の受け渡し</t>
+  </si>
+  <si>
+    <t>デーベースの情報更新</t>
+  </si>
+  <si>
+    <t>アカウント更新で変更した項目</t>
+  </si>
+  <si>
+    <t>データベース「diworks_account」を確認する</t>
+  </si>
+  <si>
+    <t>・対象項目がアカウント更新で変更した情報に変わっている +・パスワードは暗号化されている</t>
+  </si>
+  <si>
+    <t>アカウント更新完了画面→アカウント一覧</t>
+  </si>
+  <si>
+    <t>情報更新</t>
+  </si>
+  <si>
+    <t>最新状態のデータ取得</t>
+  </si>
+  <si>
+    <t>更新日時欄を目視</t>
+  </si>
+  <si>
+    <t>アカウント更新かけたIDは更新日時も更新されている</t>
+  </si>
+  <si>
+    <t>アカウント一覧→アカウント削除画面</t>
+  </si>
+  <si>
+    <t>①トップ画面から「アカウント一覧」を押す +②アカウント一覧画面の削除ボタンを押す +②対象項目を目視</t>
+  </si>
+  <si>
+    <t>アカウント削除画面→アカウント削除確認画面</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>アカウント削除画面で確認するボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面→アカウント削除画面</t>
+  </si>
+  <si>
+    <t>前に戻るを押す</t>
+  </si>
+  <si>
+    <t>アカウント削除画面に遷移する</t>
+  </si>
+  <si>
+    <t>アカウント削除確認画面→アカウント削除完了画面</t>
+  </si>
+  <si>
+    <t>削除する</t>
+  </si>
+  <si>
+    <t>削除するボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面に遷移する</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面→データベース</t>
+  </si>
+  <si>
+    <t>アカウント削除画面で削除したIDを探す</t>
+  </si>
+  <si>
+    <t>アカウント削除したIDのdelete_flagが１になっている</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面→アカウト一覧</t>
+  </si>
+  <si>
+    <t>最新情報の取得</t>
+  </si>
+  <si>
+    <t>対象ID</t>
+  </si>
+  <si>
+    <t>アカウント削除したIDがリストから消えいている</t>
   </si>
 </sst>
 </file>
@@ -493,7 +710,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -505,6 +722,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1640,7 +1860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1651,8 +1871,7 @@
     <col min="1" max="1" width="8.29688" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.2109" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3594" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.2031" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.3594" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.6797" style="1" customWidth="1"/>
     <col min="7" max="7" width="81.7266" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.92188" style="1" customWidth="1"/>
@@ -1694,816 +1913,1820 @@
       <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
       <c r="G2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="6">
+      <c r="L2" t="s" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="48.7" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" ht="48.45" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="B4" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s" s="14">
+      <c r="C4" s="14"/>
+      <c r="D4" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="14">
+      <c r="E4" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="G4" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" ht="48.45" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="16">
+      <c r="B5" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" t="s" s="18">
+      <c r="C5" s="18"/>
+      <c r="D5" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="18">
+      <c r="E5" t="s" s="19">
         <v>28</v>
       </c>
-      <c r="F5" t="s" s="18">
+      <c r="F5" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="G5" t="s" s="18">
+      <c r="G5" t="s" s="19">
         <v>30</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" ht="18.45" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="14">
+      <c r="C6" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="14">
+      <c r="D6" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="14">
+      <c r="E6" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" t="s" s="15">
         <v>35</v>
       </c>
-      <c r="G6" t="s" s="14">
+      <c r="G6" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" ht="18.45" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" t="s" s="18">
+      <c r="B7" s="21"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" t="s" s="19">
         <v>37</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" t="s" s="18">
+      <c r="F7" s="18"/>
+      <c r="G7" t="s" s="19">
         <v>38</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" ht="18.45" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" t="s" s="14">
+      <c r="B8" s="22"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" t="s" s="14">
+      <c r="F8" s="14"/>
+      <c r="G8" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" ht="18.45" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" t="s" s="18">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" t="s" s="19">
         <v>41</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" t="s" s="18">
+      <c r="F9" s="18"/>
+      <c r="G9" t="s" s="19">
         <v>42</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" ht="18.45" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" t="s" s="14">
+      <c r="B10" s="22"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" t="s" s="15">
         <v>43</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" t="s" s="14">
+      <c r="F10" s="14"/>
+      <c r="G10" t="s" s="15">
         <v>44</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" ht="18.45" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" t="s" s="18">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" t="s" s="19">
         <v>45</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" t="s" s="18">
+      <c r="F11" s="18"/>
+      <c r="G11" t="s" s="19">
         <v>46</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" ht="18.45" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" t="s" s="14">
+      <c r="B12" s="22"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" t="s" s="15">
         <v>47</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" t="s" s="14">
+      <c r="F12" s="14"/>
+      <c r="G12" t="s" s="15">
         <v>48</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" ht="18.45" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" t="s" s="18">
+      <c r="B13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" t="s" s="19">
         <v>49</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" t="s" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" t="s" s="19">
         <v>50</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" ht="18.45" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" t="s" s="14">
+      <c r="B14" s="22"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" t="s" s="15">
         <v>51</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" t="s" s="14">
+      <c r="F14" s="14"/>
+      <c r="G14" t="s" s="15">
         <v>52</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" ht="18.45" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" t="s" s="18">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" t="s" s="19">
         <v>53</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" t="s" s="18">
+      <c r="F15" s="18"/>
+      <c r="G15" t="s" s="19">
         <v>54</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" ht="18.45" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" t="s" s="14">
+      <c r="B16" s="22"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" t="s" s="15">
         <v>55</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" t="s" s="14">
+      <c r="F16" s="14"/>
+      <c r="G16" t="s" s="15">
         <v>56</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" ht="18.45" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" t="s" s="18">
+      <c r="B17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" t="s" s="19">
         <v>57</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" t="s" s="18">
+      <c r="F17" s="18"/>
+      <c r="G17" t="s" s="19">
         <v>58</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" ht="33.45" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" t="s" s="14">
+      <c r="B18" s="22"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" t="s" s="15">
         <v>59</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" t="s" s="14">
+      <c r="F18" s="14"/>
+      <c r="G18" t="s" s="15">
         <v>60</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" ht="18.45" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" t="s" s="18">
+      <c r="B19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" t="s" s="19">
         <v>61</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" t="s" s="18">
+      <c r="F19" s="18"/>
+      <c r="G19" t="s" s="19">
         <v>62</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" ht="18.45" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" t="s" s="14">
+      <c r="B20" s="22"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" t="s" s="14">
+      <c r="F20" s="14"/>
+      <c r="G20" t="s" s="15">
         <v>64</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" ht="18.45" customHeight="1">
-      <c r="A21" s="11">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" t="s" s="18">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" t="s" s="19">
         <v>65</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" t="s" s="18">
+      <c r="F21" s="18"/>
+      <c r="G21" t="s" s="19">
         <v>66</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" ht="33.45" customHeight="1">
-      <c r="A22" s="11">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="12">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="C22" t="s" s="14">
+      <c r="C22" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="D22" t="s" s="14">
+      <c r="D22" t="s" s="15">
         <v>68</v>
       </c>
-      <c r="E22" t="s" s="14">
+      <c r="E22" t="s" s="15">
         <v>69</v>
       </c>
-      <c r="F22" t="s" s="14">
+      <c r="F22" t="s" s="15">
         <v>70</v>
       </c>
-      <c r="G22" t="s" s="14">
+      <c r="G22" t="s" s="15">
         <v>71</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" ht="18.45" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="16">
+      <c r="B23" t="s" s="17">
         <v>72</v>
       </c>
-      <c r="C23" t="s" s="18">
+      <c r="C23" t="s" s="19">
         <v>73</v>
       </c>
-      <c r="D23" t="s" s="18">
+      <c r="D23" t="s" s="19">
         <v>74</v>
       </c>
-      <c r="E23" t="s" s="18">
+      <c r="E23" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="F23" t="s" s="18">
+      <c r="F23" t="s" s="19">
         <v>75</v>
       </c>
-      <c r="G23" t="s" s="18">
+      <c r="G23" t="s" s="19">
         <v>76</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" ht="18.45" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" t="s" s="14">
+      <c r="B24" s="22"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" t="s" s="15">
         <v>77</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" t="s" s="14">
+      <c r="F24" s="14"/>
+      <c r="G24" t="s" s="15">
         <v>78</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" ht="18.45" customHeight="1">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" t="s" s="18">
+      <c r="B25" s="21"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" t="s" s="19">
         <v>79</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" ht="18.45" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" t="s" s="14">
+      <c r="B26" s="22"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" t="s" s="15">
+        <v>81</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" t="s" s="15">
+        <v>82</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" ht="18.45" customHeight="1">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" t="s" s="19">
+        <v>83</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" t="s" s="19">
+        <v>84</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" ht="18.45" customHeight="1">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" t="s" s="15">
+        <v>85</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" t="s" s="15">
+        <v>86</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" ht="18.45" customHeight="1">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" ht="18.45" customHeight="1">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" t="s" s="15">
+        <v>89</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" t="s" s="15">
+        <v>90</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" ht="18.45" customHeight="1">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" t="s" s="19">
+        <v>91</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" ht="18.45" customHeight="1">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" ht="18.45" customHeight="1">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" t="s" s="19">
+        <v>95</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" t="s" s="19">
+        <v>96</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" ht="18.45" customHeight="1">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" t="s" s="15">
+        <v>98</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" ht="18.45" customHeight="1">
+      <c r="A35" s="12">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="19">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s" s="19">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s" s="19">
+        <v>101</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" ht="18.45" customHeight="1">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s" s="15">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" ht="18.45" customHeight="1">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="17">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s" s="19">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s" s="19">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="19">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s" s="19">
+        <v>78</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" ht="18.45" customHeight="1">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" t="s" s="15">
+        <v>79</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="15"/>
-      <c r="I26" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" ht="18.45" customHeight="1">
-      <c r="A27" s="11">
-        <v>25</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" t="s" s="18">
+      <c r="H38" s="14"/>
+      <c r="I38" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" ht="18.45" customHeight="1">
+      <c r="A39" s="12">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" t="s" s="19">
         <v>81</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" ht="18.45" customHeight="1">
-      <c r="A28" s="11">
-        <v>26</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" t="s" s="14">
+      <c r="F39" s="18"/>
+      <c r="G39" t="s" s="19">
         <v>82</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="15"/>
-      <c r="I28" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" ht="18.45" customHeight="1">
-      <c r="A29" s="11">
+      <c r="H39" s="18"/>
+      <c r="I39" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" ht="18.45" customHeight="1">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" t="s" s="15">
+        <v>83</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" t="s" s="15">
+        <v>84</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" ht="18.45" customHeight="1">
+      <c r="A41" s="12">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" t="s" s="19">
+        <v>85</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" ht="33.45" customHeight="1">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" t="s" s="15">
+        <v>108</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" t="s" s="15">
+        <v>109</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" ht="18.45" customHeight="1">
+      <c r="A43" s="12">
+        <v>41</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" t="s" s="19">
+        <v>87</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" ht="18.45" customHeight="1">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" t="s" s="15">
+        <v>110</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" ht="18.45" customHeight="1">
+      <c r="A45" s="12">
+        <v>43</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" t="s" s="19">
+        <v>112</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" ht="18.45" customHeight="1">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" t="s" s="15">
+        <v>115</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" ht="18.45" customHeight="1">
+      <c r="A47" s="12">
+        <v>45</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" t="s" s="19">
+        <v>117</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" ht="18.45" customHeight="1">
+      <c r="A48" s="12">
+        <v>46</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" t="s" s="15">
+        <v>89</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" t="s" s="15">
+        <v>90</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" ht="48.45" customHeight="1">
+      <c r="A49" s="12">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="17">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s" s="19">
+        <v>119</v>
+      </c>
+      <c r="G49" t="s" s="19">
+        <v>120</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" ht="48.45" customHeight="1">
+      <c r="A50" s="12">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="13">
+        <v>121</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s" s="15">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s" s="15">
+        <v>123</v>
+      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" ht="48.45" customHeight="1">
+      <c r="A51" s="12">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="17">
+        <v>124</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" t="s" s="18">
+      <c r="E51" t="s" s="19">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s" s="19">
+        <v>126</v>
+      </c>
+      <c r="G51" t="s" s="19">
+        <v>127</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" ht="33.45" customHeight="1">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s" s="15">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s" s="15">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s" s="15">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="G52" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" ht="33.45" customHeight="1">
+      <c r="A53" s="12">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="17">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s" s="19">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s" s="19">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s" s="19">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s" s="19">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s" s="19">
+        <v>138</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" ht="18.45" customHeight="1">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s" s="15">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s" s="15">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="15">
+        <v>140</v>
+      </c>
+      <c r="G54" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" ht="18.45" customHeight="1">
+      <c r="A55" s="12">
+        <v>53</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" t="s" s="19">
+        <v>79</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" ht="18.45" customHeight="1">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" t="s" s="15">
+        <v>81</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" t="s" s="15">
+        <v>82</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" ht="18.45" customHeight="1">
+      <c r="A57" s="12">
+        <v>55</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" t="s" s="19">
         <v>83</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="19"/>
-      <c r="I29" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" ht="18.45" customHeight="1">
-      <c r="A30" s="11">
-        <v>28</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" t="s" s="14">
+      <c r="F57" s="18"/>
+      <c r="G57" t="s" s="19">
         <v>84</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="15"/>
-      <c r="I30" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" ht="18.45" customHeight="1">
-      <c r="A31" s="11">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" t="s" s="18">
+      <c r="H57" s="18"/>
+      <c r="I57" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" ht="18.45" customHeight="1">
+      <c r="A58" s="12">
+        <v>56</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" t="s" s="15">
         <v>85</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" t="s" s="18">
+      <c r="F58" s="14"/>
+      <c r="G58" t="s" s="15">
         <v>86</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" ht="18.45" customHeight="1">
-      <c r="A32" s="11">
-        <v>30</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" t="s" s="14">
+      <c r="H58" s="14"/>
+      <c r="I58" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" ht="33.45" customHeight="1">
+      <c r="A59" s="12">
+        <v>57</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" t="s" s="19">
+        <v>108</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" t="s" s="19">
+        <v>109</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" ht="18.45" customHeight="1">
+      <c r="A60" s="12">
+        <v>58</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" t="s" s="15">
         <v>87</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" t="s" s="14">
+      <c r="F60" s="14"/>
+      <c r="G60" t="s" s="15">
         <v>88</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" ht="18.45" customHeight="1">
-      <c r="A33" s="11">
-        <v>31</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" t="s" s="18">
+      <c r="H60" s="14"/>
+      <c r="I60" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+    </row>
+    <row r="61" ht="18.45" customHeight="1">
+      <c r="A61" s="12">
+        <v>59</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" t="s" s="19">
+        <v>110</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" ht="18.45" customHeight="1">
+      <c r="A62" s="12">
+        <v>60</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" t="s" s="15">
+        <v>112</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+    </row>
+    <row r="63" ht="18.45" customHeight="1">
+      <c r="A63" s="12">
+        <v>61</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" t="s" s="19">
+        <v>115</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" ht="18.45" customHeight="1">
+      <c r="A64" s="12">
+        <v>62</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" t="s" s="15">
+        <v>116</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" t="s" s="15">
+        <v>117</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" ht="18.45" customHeight="1">
+      <c r="A65" s="12">
+        <v>63</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" t="s" s="19">
         <v>89</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="19"/>
-      <c r="I33" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="F65" s="18"/>
+      <c r="G65" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" ht="33.45" customHeight="1">
+      <c r="A66" s="12">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s" s="15">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s" s="15">
+        <v>143</v>
+      </c>
+      <c r="G66" t="s" s="15">
+        <v>144</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" ht="33.45" customHeight="1">
+      <c r="A67" s="12">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s" s="17">
+        <v>145</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s" s="19">
+        <v>146</v>
+      </c>
+      <c r="G67" t="s" s="19">
+        <v>147</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" ht="33.45" customHeight="1">
+      <c r="A68" s="12">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" t="s" s="15">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s" s="15">
+        <v>150</v>
+      </c>
+      <c r="G68" t="s" s="15">
+        <v>151</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J68" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" ht="33.45" customHeight="1">
+      <c r="A69" s="12">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s" s="17">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s" s="19">
+        <v>129</v>
+      </c>
+      <c r="D69" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="F69" t="s" s="19">
+        <v>153</v>
+      </c>
+      <c r="G69" t="s" s="19">
+        <v>154</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" ht="33.45" customHeight="1">
+      <c r="A70" s="12">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s" s="13">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s" s="15">
+        <v>156</v>
+      </c>
+      <c r="D70" t="s" s="15">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s" s="15">
+        <v>157</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" t="s" s="15">
+        <v>158</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="F6:F21"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="C6:C21"/>
     <mergeCell ref="D6:D21"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D23:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="F23:F34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="F37:F48"/>
+    <mergeCell ref="D37:D48"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="F54:F65"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="F69:F70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
